--- a/results/VSD/source_data/test_results_table_transfer_mean_sd_single_col.xlsx
+++ b/results/VSD/source_data/test_results_table_transfer_mean_sd_single_col.xlsx
@@ -495,17 +495,17 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.542 (0.542)</t>
+          <t>0.542 (0.013)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.486 (0.486)</t>
+          <t>0.486 (0.009)</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.217 (0.217)</t>
+          <t>0.217 (0.009)</t>
         </is>
       </c>
     </row>
@@ -518,17 +518,17 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.652 (0.652)</t>
+          <t>0.652 (0.010)</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.576 (0.576)</t>
+          <t>0.576 (0.009)</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>0.226 (0.226)</t>
+          <t>0.226 (0.002)</t>
         </is>
       </c>
     </row>
@@ -541,17 +541,17 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.743 (0.743)</t>
+          <t>0.743 (0.013)</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.656 (0.656)</t>
+          <t>0.656 (0.014)</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>0.237 (0.237)</t>
+          <t>0.237 (0.009)</t>
         </is>
       </c>
     </row>
@@ -564,17 +564,17 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.786 (0.786)</t>
+          <t>0.786 (0.007)</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0.683 (0.683)</t>
+          <t>0.683 (0.007)</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>0.242 (0.242)</t>
+          <t>0.242 (0.002)</t>
         </is>
       </c>
     </row>
@@ -591,17 +591,17 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.520 (0.520)</t>
+          <t>0.520 (0.016)</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0.501 (0.501)</t>
+          <t>0.501 (0.012)</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0.212 (0.212)</t>
+          <t>0.212 (0.022)</t>
         </is>
       </c>
     </row>
@@ -614,17 +614,17 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>0.616 (0.616)</t>
+          <t>0.616 (0.008)</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>0.587 (0.587)</t>
+          <t>0.587 (0.007)</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>0.231 (0.231)</t>
+          <t>0.231 (0.001)</t>
         </is>
       </c>
     </row>
@@ -637,17 +637,17 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.666 (0.666)</t>
+          <t>0.666 (0.019)</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>0.654 (0.654)</t>
+          <t>0.654 (0.015)</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>0.243 (0.243)</t>
+          <t>0.243 (0.008)</t>
         </is>
       </c>
     </row>
@@ -660,17 +660,17 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.742 (0.742)</t>
+          <t>0.742 (0.009)</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>0.709 (0.709)</t>
+          <t>0.709 (0.008)</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>0.248 (0.248)</t>
+          <t>0.248 (0.002)</t>
         </is>
       </c>
     </row>
@@ -687,17 +687,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.406 (0.406)</t>
+          <t>0.406 (0.018)</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>0.418 (0.418)</t>
+          <t>0.418 (0.016)</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>0.113 (0.113)</t>
+          <t>0.113 (0.011)</t>
         </is>
       </c>
     </row>
@@ -710,17 +710,17 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0.614 (0.614)</t>
+          <t>0.614 (0.010)</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0.589 (0.589)</t>
+          <t>0.589 (0.006)</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>0.306 (0.306)</t>
+          <t>0.306 (0.006)</t>
         </is>
       </c>
     </row>
@@ -733,17 +733,17 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0.643 (0.643)</t>
+          <t>0.643 (0.026)</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>0.637 (0.637)</t>
+          <t>0.637 (0.020)</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>0.276 (0.276)</t>
+          <t>0.276 (0.027)</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0.744 (0.744)</t>
+          <t>0.744 (0.006)</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0.707 (0.707)</t>
+          <t>0.707 (0.007)</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>0.406 (0.406)</t>
+          <t>0.406 (0.007)</t>
         </is>
       </c>
     </row>
